--- a/src/i18n/lang.xlsx
+++ b/src/i18n/lang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
   <si>
     <t>kye</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>nav.permission</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>Permission Management</t>
   </si>
   <si>
     <t>nav.form</t>
@@ -438,7 +447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -451,34 +460,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,14 +476,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,6 +515,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,7 +580,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,49 +616,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,121 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,21 +807,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,6 +839,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,148 +912,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,52 +1067,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1128,7 +1137,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C71" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="kye" dataDxfId="0"/>
     <tableColumn id="2" name="简体中文" dataDxfId="1"/>
@@ -1425,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C63" sqref="B65:B66 C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1784,21 +1793,21 @@
         <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1850,15 +1859,15 @@
         <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>79</v>
@@ -1869,46 +1878,46 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1986,6 +1995,17 @@
       </c>
       <c r="C50" s="1" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/src/i18n/lang.xlsx
+++ b/src/i18n/lang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
   <si>
     <t>kye</t>
   </si>
@@ -442,6 +442,51 @@
   </si>
   <si>
     <t>Request error. Please verify and try again.</t>
+  </si>
+  <si>
+    <t>nav.user</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>nav.role</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>Role Management</t>
+  </si>
+  <si>
+    <t>nav.menu1</t>
+  </si>
+  <si>
+    <t>菜单1</t>
+  </si>
+  <si>
+    <t>Menu 1</t>
+  </si>
+  <si>
+    <t>nav.menu2</t>
+  </si>
+  <si>
+    <t>菜单2</t>
+  </si>
+  <si>
+    <t>Menu 2</t>
+  </si>
+  <si>
+    <t>nav.menu3</t>
+  </si>
+  <si>
+    <t>菜单3</t>
+  </si>
+  <si>
+    <t>Menu 3</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="B65:B66 C63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2006,6 +2051,61 @@
       </c>
       <c r="C51" s="1" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
